--- a/Table_B_2.xlsx
+++ b/Table_B_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\документы\метрология\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\Лабы, Контрольные и дз\Элтех 3курс\Модуль 2. Метрология\ДЗ\metrology\metrology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF6F6BD-F962-4ACD-989F-8B8F14E0140D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B38B46-F1BA-4B64-9508-8BD86A97947E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2100" windowWidth="21585" windowHeight="11355" xr2:uid="{6E06132F-F1F6-4794-A7A3-3EA7DF24787B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E06132F-F1F6-4794-A7A3-3EA7DF24787B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>n</t>
   </si>
@@ -43,27 +43,6 @@
   </si>
   <si>
     <t>g2*100%</t>
-  </si>
-  <si>
-    <t>11-14</t>
-  </si>
-  <si>
-    <t>15-20</t>
-  </si>
-  <si>
-    <t>21-22</t>
-  </si>
-  <si>
-    <t>24-27</t>
-  </si>
-  <si>
-    <t>28-32</t>
-  </si>
-  <si>
-    <t>33-35</t>
-  </si>
-  <si>
-    <t>36-49</t>
   </si>
 </sst>
 </file>
@@ -100,13 +79,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -421,42 +401,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE13CBEE-BD92-4699-BF2F-75694F239A78}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1">
         <v>0.01</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.02</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>10</v>
       </c>
       <c r="B3">
@@ -472,9 +452,9 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -489,9 +469,9 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -500,111 +480,638 @@
         <v>0.99</v>
       </c>
       <c r="D5">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E5">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D6">
+        <v>0.98</v>
+      </c>
+      <c r="E6">
         <v>0.97</v>
       </c>
-      <c r="E6">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.99</v>
+      </c>
+      <c r="D7">
+        <v>0.98</v>
+      </c>
+      <c r="E7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.99</v>
+      </c>
+      <c r="D8">
+        <v>0.99</v>
+      </c>
+      <c r="E8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.99</v>
+      </c>
+      <c r="D9">
+        <v>0.99</v>
+      </c>
+      <c r="E9">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.99</v>
+      </c>
+      <c r="D10">
+        <v>0.99</v>
+      </c>
+      <c r="E10">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.99</v>
+      </c>
+      <c r="D11">
+        <v>0.99</v>
+      </c>
+      <c r="E11">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.99</v>
+      </c>
+      <c r="D12">
+        <v>0.99</v>
+      </c>
+      <c r="E12">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.99</v>
+      </c>
+      <c r="D13">
+        <v>0.99</v>
+      </c>
+      <c r="E13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0.98</v>
+      </c>
+      <c r="D14">
+        <v>0.97</v>
+      </c>
+      <c r="E14">
         <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.98</v>
+      </c>
+      <c r="D15">
+        <v>0.97</v>
+      </c>
+      <c r="E15">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>23</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>0.98</v>
-      </c>
-      <c r="D7">
-        <v>0.98</v>
-      </c>
-      <c r="E7">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0.98</v>
+      </c>
+      <c r="D16">
+        <v>0.98</v>
+      </c>
+      <c r="E16">
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0.98</v>
-      </c>
-      <c r="D8">
-        <v>0.98</v>
-      </c>
-      <c r="E8">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0.98</v>
+      </c>
+      <c r="D17">
+        <v>0.98</v>
+      </c>
+      <c r="E17">
         <v>0.97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0.99</v>
-      </c>
-      <c r="D9">
-        <v>0.98</v>
-      </c>
-      <c r="E9">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.99</v>
-      </c>
-      <c r="D10">
-        <v>0.98</v>
-      </c>
-      <c r="E10">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0.99</v>
-      </c>
-      <c r="D11">
-        <v>0.99</v>
-      </c>
-      <c r="E11">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0.98</v>
+      </c>
+      <c r="D18">
+        <v>0.98</v>
+      </c>
+      <c r="E18">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.98</v>
+      </c>
+      <c r="D19">
+        <v>0.98</v>
+      </c>
+      <c r="E19">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.98</v>
+      </c>
+      <c r="D20">
+        <v>0.98</v>
+      </c>
+      <c r="E20">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.99</v>
+      </c>
+      <c r="D21">
+        <v>0.98</v>
+      </c>
+      <c r="E21">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0.99</v>
+      </c>
+      <c r="D22">
+        <v>0.98</v>
+      </c>
+      <c r="E22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0.99</v>
+      </c>
+      <c r="D23">
+        <v>0.98</v>
+      </c>
+      <c r="E23">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0.99</v>
+      </c>
+      <c r="D24">
+        <v>0.98</v>
+      </c>
+      <c r="E24">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0.99</v>
+      </c>
+      <c r="D25">
+        <v>0.98</v>
+      </c>
+      <c r="E25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.99</v>
+      </c>
+      <c r="D26">
+        <v>0.98</v>
+      </c>
+      <c r="E26">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0.99</v>
+      </c>
+      <c r="D27">
+        <v>0.98</v>
+      </c>
+      <c r="E27">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0.99</v>
+      </c>
+      <c r="D28">
+        <v>0.98</v>
+      </c>
+      <c r="E28">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0.99</v>
+      </c>
+      <c r="D29">
+        <v>0.99</v>
+      </c>
+      <c r="E29">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0.99</v>
+      </c>
+      <c r="D30">
+        <v>0.99</v>
+      </c>
+      <c r="E30">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0.99</v>
+      </c>
+      <c r="D31">
+        <v>0.99</v>
+      </c>
+      <c r="E31">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0.99</v>
+      </c>
+      <c r="D32">
+        <v>0.99</v>
+      </c>
+      <c r="E32">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0.99</v>
+      </c>
+      <c r="D33">
+        <v>0.99</v>
+      </c>
+      <c r="E33">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0.99</v>
+      </c>
+      <c r="D34">
+        <v>0.99</v>
+      </c>
+      <c r="E34">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0.99</v>
+      </c>
+      <c r="D35">
+        <v>0.99</v>
+      </c>
+      <c r="E35">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0.99</v>
+      </c>
+      <c r="D36">
+        <v>0.99</v>
+      </c>
+      <c r="E36">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0.99</v>
+      </c>
+      <c r="D37">
+        <v>0.99</v>
+      </c>
+      <c r="E37">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0.99</v>
+      </c>
+      <c r="D38">
+        <v>0.99</v>
+      </c>
+      <c r="E38">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0.99</v>
+      </c>
+      <c r="D39">
+        <v>0.99</v>
+      </c>
+      <c r="E39">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0.99</v>
+      </c>
+      <c r="D40">
+        <v>0.99</v>
+      </c>
+      <c r="E40">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0.99</v>
+      </c>
+      <c r="D41">
+        <v>0.99</v>
+      </c>
+      <c r="E41">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0.99</v>
+      </c>
+      <c r="D42">
+        <v>0.99</v>
+      </c>
+      <c r="E42">
         <v>0.98</v>
       </c>
     </row>
